--- a/Mil_Loop_Model.xlsx
+++ b/Mil_Loop_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cody_\Documents\Thesis Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07326A8B-6D5E-4361-93C2-CC79675B6C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897067A-1DA7-48B7-9796-B339F8B6BB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{83F0F9A2-99A1-4668-BC08-0A319F09D298}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{83F0F9A2-99A1-4668-BC08-0A319F09D298}"/>
   </bookViews>
   <sheets>
     <sheet name="Input &amp; Results" sheetId="6" r:id="rId1"/>
@@ -665,6 +665,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -672,6 +675,15 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,18 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -16095,7 +16095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A75604-C8CA-4A32-8DE9-F55164CBE9CD}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -16107,7 +16107,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="21" t="s">
@@ -16121,7 +16121,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
@@ -16133,7 +16133,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
@@ -16145,7 +16145,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
@@ -16157,7 +16157,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
@@ -16169,7 +16169,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="19" t="s">
         <v>20</v>
       </c>
@@ -16182,7 +16182,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
@@ -16193,7 +16193,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="47" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -16207,7 +16207,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="19" t="s">
         <v>9</v>
       </c>
@@ -16219,7 +16219,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
@@ -16231,7 +16231,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
@@ -16243,7 +16243,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="19" t="s">
         <v>31</v>
       </c>
@@ -16255,7 +16255,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="19" t="s">
         <v>27</v>
       </c>
@@ -16267,7 +16267,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="55"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
@@ -16279,7 +16279,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="55"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="33" t="s">
         <v>32</v>
       </c>
@@ -16291,19 +16291,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="56"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="42">
         <v>1</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="44" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -16317,7 +16317,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="42"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="19" t="s">
         <v>37</v>
       </c>
@@ -16330,7 +16330,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="42"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="19" t="s">
         <v>38</v>
       </c>
@@ -16343,13 +16343,13 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
       </c>
@@ -16357,7 +16357,7 @@
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="19" t="s">
         <v>37</v>
       </c>
@@ -16370,7 +16370,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="19" t="s">
         <v>38</v>
       </c>
@@ -16383,7 +16383,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="33" t="s">
         <v>42</v>
       </c>
@@ -16409,9 +16409,9 @@
   <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="A32" sqref="A32:XFD32"/>
+      <selection pane="topRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16441,27 +16441,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
       <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
@@ -26836,6 +26836,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Ih5moPuXHvN6xhqZ+VUgIX73O03rIkVxphzGxxgkpJ25rOBKFY2g4G27v/0xBNITmowtkkisygE8onh82MAqKA==" saltValue="MziTO1yCj68USutFeyypuA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="B1:E1"/>
@@ -26883,27 +26884,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="46"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
       <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">
